--- a/EnemyData.xlsx
+++ b/EnemyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11860" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>Enemy / Para</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Hp</t>
+  </si>
+  <si>
+    <t>BigGuy(Boss)</t>
   </si>
   <si>
     <t>Captain</t>
@@ -79,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -133,6 +136,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -140,43 +172,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,9 +211,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,45 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -245,17 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,14 +263,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,37 +300,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,6 +348,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,145 +366,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +528,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,7 +548,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,28 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,172 +612,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,16 +778,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1123,91 +1117,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6428571428571" defaultRowHeight="35" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="18.6428571428571" style="6" customWidth="1"/>
+    <col min="1" max="16384" width="18.6428571428571" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1223,7 +1217,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6428571428571" defaultRowHeight="30" customHeight="1" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1282,7 +1276,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
@@ -1308,8 +1302,8 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -1334,8 +1328,8 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
+      <c r="A5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -1360,8 +1354,8 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
